--- a/Assets/Resources/ExcelData/Excel/MainData.xlsx
+++ b/Assets/Resources/ExcelData/Excel/MainData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22018,90 +22018,7 @@
     <t>棕黑锦蛇</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有鳞目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游蛇科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。又称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑松花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，分布于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑龙江、吉林、辽宁、河北、山东、湖南、湖北、浙江、西伯利亚、朝鲜、日本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等地，栖息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>于平原、山区的林边、草丛、耕地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>有鳞目，游蛇科。又称黑松花，分布于黑龙江、吉林、辽宁、河北、山东、湖南、湖北、浙江、西伯利亚、朝鲜、日本等地，多栖息于平原、山区的林边、草丛、耕地。</t>
   </si>
   <si>
     <t>Sprites/牡丹江流域野生动物/棕黑锦蛇</t>
@@ -22145,67 +22062,15 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>繁殖于整个俄罗斯及西伯利亚、朝鲜至日本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>偶见于阿拉斯加及欧洲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>越冬于中国北方及东北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栖息于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>森林及灌丛的林下植被。</t>
+      <t>繁殖于整个俄罗斯及西伯利亚、朝鲜至日本，偶见于阿拉斯加及欧洲，越冬于中国北方及东北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，栖息于森林及灌丛的林下植被。</t>
     </r>
   </si>
   <si>
@@ -23832,9 +23697,9 @@
   <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
+      <selection pane="bottomLeft" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -23842,7 +23707,7 @@
     <col min="1" max="1" width="11.2" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.475" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.05" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.425" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72.925" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
     <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
@@ -27829,7 +27694,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="234" s="1" customFormat="1" ht="38.25" spans="1:5">
+    <row r="234" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A234" s="1">
         <v>230</v>
       </c>
@@ -27839,7 +27704,7 @@
       <c r="C234" s="42" t="s">
         <v>925</v>
       </c>
-      <c r="D234" s="27" t="s">
+      <c r="D234" s="32" t="s">
         <v>926</v>
       </c>
       <c r="E234" s="1" t="s">
